--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249926.8680385992</v>
+        <v>-251814.4495550011</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>63.65498674075032</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>227.5389050092816</v>
       </c>
     </row>
     <row r="3">
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>135.1157241044943</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>213.9154470216035</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>88.04984842883523</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>325.2557485598865</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>36.86740133315055</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>94.65568569260694</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>161.2000559090907</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>177.4339484441096</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,10 +1181,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>213.8524658611806</v>
+        <v>121.0252690996995</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>146.278729911946</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>64.2970591318967</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.42247119226028</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="17">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>105.7410395632858</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151919</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>22.29781084230817</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>255.3303665522262</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056516</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>24.01153903325431</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>49.42788049869343</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965516</v>
+        <v>93.41221638965524</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801197</v>
+        <v>40.02419208505986</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437405</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897893</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571489</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752356</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>53.08597334166717</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
         <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
         <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463136</v>
@@ -3253,7 +3253,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224528</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463136</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463127</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415206</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T46" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4198,7 +4198,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y46" t="n">
         <v>150.4527632224541</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1273.280804219765</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C2" t="n">
-        <v>1273.280804219765</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>915.0151056130146</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>529.2268530147703</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>118.2409482251628</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,10 +4328,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X2" t="n">
-        <v>2050.019976259699</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="Y2" t="n">
-        <v>1659.880644283887</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="3">
@@ -4398,40 +4398,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.3364050629043</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>507.3364050629043</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629043</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4601,16 +4601,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,40 +4647,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91.18278114677915</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>91.18278114677915</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>91.18278114677915</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>91.18278114677915</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>91.18278114677915</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>91.18278114677915</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>91.18278114677915</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750362</v>
+        <v>632.5171804765284</v>
       </c>
       <c r="V7" t="n">
-        <v>500.8207968750362</v>
+        <v>632.5171804765284</v>
       </c>
       <c r="W7" t="n">
-        <v>500.8207968750362</v>
+        <v>632.5171804765284</v>
       </c>
       <c r="X7" t="n">
-        <v>272.8312459770189</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y7" t="n">
-        <v>272.8312459770189</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1405.321187657107</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.288858935031</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y8" t="n">
-        <v>1568.149526959219</v>
+        <v>1542.779601230298</v>
       </c>
     </row>
     <row r="9">
@@ -4878,10 +4878,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4890,7 +4890,7 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>576.4643184947033</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>576.4643184947033</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610024</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>222.942782082032</v>
+        <v>576.4643184947033</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>576.4643184947033</v>
       </c>
     </row>
     <row r="11">
@@ -5027,22 +5027,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
@@ -5060,10 +5060,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5115,7 +5115,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
@@ -5127,7 +5127,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5136,10 +5136,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>862.1113288466634</v>
       </c>
       <c r="V13" t="n">
-        <v>1033.766003957633</v>
+        <v>607.4268406407765</v>
       </c>
       <c r="W13" t="n">
-        <v>744.348833920672</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X13" t="n">
-        <v>744.348833920672</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>744.348833920672</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5261,49 +5261,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K15" t="n">
-        <v>485.404702608941</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>732.169830515405</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.489963795367</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>244.1070389581964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570736</v>
+        <v>731.3177283550795</v>
       </c>
       <c r="W16" t="n">
-        <v>531.109187020113</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="X16" t="n">
-        <v>303.1196361220957</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>244.1070389581964</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5528,13 +5528,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>485.5200852635876</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028587</v>
@@ -5671,16 +5671,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1281.032036247722</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>991.90339746128</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V19" t="n">
-        <v>737.2189092553931</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W19" t="n">
-        <v>447.8017392184325</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>399.4500457733744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>399.4500457733744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>399.4500457733744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>399.4500457733744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>399.4500457733744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>231.2747240931951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U22" t="n">
-        <v>874.9271131227915</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V22" t="n">
-        <v>620.2426249169046</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W22" t="n">
-        <v>620.2426249169046</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>620.2426249169046</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>399.4500457733744</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6054,16 +6054,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126483</v>
@@ -6072,7 +6072,7 @@
         <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
@@ -6084,10 +6084,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1017.221394183544</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>762.5369059776569</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>473.1197359406963</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="X25" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028562</v>
@@ -6227,10 +6227,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6242,10 +6242,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6306,19 +6306,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1296.555866665166</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>634.6737565393109</v>
+        <v>121.471171291856</v>
       </c>
       <c r="C28" t="n">
-        <v>465.7375736114042</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>465.7375736114042</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6385,10 +6385,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>1044.311772267568</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W28" t="n">
-        <v>1044.311772267568</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X28" t="n">
-        <v>816.3222213695506</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y28" t="n">
-        <v>816.3222213695506</v>
+        <v>303.1196361220957</v>
       </c>
     </row>
     <row r="29">
@@ -6440,52 +6440,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6555,7 +6555,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.101093324843</v>
+        <v>494.8466681110233</v>
       </c>
       <c r="C31" t="n">
-        <v>581.925775678307</v>
+        <v>494.8466681110233</v>
       </c>
       <c r="D31" t="n">
-        <v>487.5700015473421</v>
+        <v>400.4908939800584</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463199</v>
+        <v>360.0624171264626</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297805</v>
+        <v>360.0624171264626</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667513</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962056</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="S31" t="n">
-        <v>1827.189629604658</v>
+        <v>1791.966918252998</v>
       </c>
       <c r="T31" t="n">
-        <v>1659.165079675535</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1425.797306170464</v>
+        <v>1390.574594818804</v>
       </c>
       <c r="V31" t="n">
-        <v>1226.873683245948</v>
+        <v>1191.650971894288</v>
       </c>
       <c r="W31" t="n">
-        <v>993.2173784903582</v>
+        <v>957.9946671386977</v>
       </c>
       <c r="X31" t="n">
-        <v>820.9886928737118</v>
+        <v>785.7659815220511</v>
       </c>
       <c r="Y31" t="n">
-        <v>820.9886928737118</v>
+        <v>620.734267659892</v>
       </c>
     </row>
     <row r="32">
@@ -6686,46 +6686,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504514</v>
@@ -6853,13 +6853,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083196</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504503</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.529509210312</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7117,28 +7117,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045198</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010308</v>
       </c>
     </row>
     <row r="38">
@@ -7151,52 +7151,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7400,10 +7400,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028562</v>
@@ -7491,19 +7491,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>582.1916992613351</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7546,13 +7546,13 @@
         <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
         <v>320.884739850451</v>
@@ -7561,7 +7561,7 @@
         <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7570,7 +7570,7 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7713,34 +7713,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>474.7746905116418</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>721.5398184181058</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1028.859951698067</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110832</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103121</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982965</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025261</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045199</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010307</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K15" t="n">
-        <v>199.6230805871087</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208054</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>223.674264993448</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>171.2966883299263</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.8856946302409</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,13 +11385,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182155</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>75.26883114644326</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>187.8405841919313</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>160.1621821598345</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>115.8065214951035</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>126.616017525228</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>30.90698584635118</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338554</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>143.2352820653735</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>97.00608214787572</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>51.2065139329522</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437413</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357148</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.7610957752357</v>
       </c>
       <c r="S31" t="n">
-        <v>89.63158001337888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
     </row>
     <row r="35">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1135819.634148765</v>
+        <v>1135819.634148766</v>
       </c>
     </row>
     <row r="6">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058925</v>
       </c>
       <c r="E2" t="n">
-        <v>254168.8888295107</v>
+        <v>254168.8888295108</v>
       </c>
       <c r="F2" t="n">
-        <v>254168.8888295107</v>
+        <v>254168.8888295108</v>
       </c>
       <c r="G2" t="n">
-        <v>254168.8888295109</v>
+        <v>254168.8888295108</v>
       </c>
       <c r="H2" t="n">
         <v>254168.8888295108</v>
@@ -26338,7 +26338,7 @@
         <v>254168.8888295108</v>
       </c>
       <c r="K2" t="n">
-        <v>264434.389274426</v>
+        <v>264434.3892744261</v>
       </c>
       <c r="L2" t="n">
         <v>266838.5752058922</v>
@@ -26347,10 +26347,10 @@
         <v>266838.5752058922</v>
       </c>
       <c r="N2" t="n">
+        <v>266838.5752058922</v>
+      </c>
+      <c r="O2" t="n">
         <v>266838.5752058923</v>
-      </c>
-      <c r="O2" t="n">
-        <v>266838.5752058922</v>
       </c>
       <c r="P2" t="n">
         <v>266838.5752058922</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.784522366845753e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925926</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284574</v>
+        <v>44162.60530284569</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086674</v>
+        <v>10342.90680086683</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284579</v>
+        <v>44162.60530284586</v>
       </c>
     </row>
     <row r="4">
@@ -26424,7 +26424,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687067</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
@@ -26433,28 +26433,28 @@
         <v>22174.60758687069</v>
       </c>
       <c r="H4" t="n">
+        <v>22174.60758687068</v>
+      </c>
+      <c r="I4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106729</v>
+        <v>40339.23010106727</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
         <v>44593.3948281912</v>
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002538</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002538</v>
-      </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-571621.2498585861</v>
       </c>
       <c r="C6" t="n">
-        <v>18346.62935595837</v>
+        <v>18346.62935595828</v>
       </c>
       <c r="D6" t="n">
-        <v>18346.62935595843</v>
+        <v>18346.62935595865</v>
       </c>
       <c r="E6" t="n">
-        <v>-385153.0811829726</v>
+        <v>-385250.5403089448</v>
       </c>
       <c r="F6" t="n">
-        <v>140006.9552939234</v>
+        <v>139909.4961679513</v>
       </c>
       <c r="G6" t="n">
-        <v>140006.9552939235</v>
+        <v>139909.4961679511</v>
       </c>
       <c r="H6" t="n">
-        <v>140006.9552939234</v>
+        <v>139909.4961679513</v>
       </c>
       <c r="I6" t="n">
-        <v>140006.9552939232</v>
+        <v>139909.4961679513</v>
       </c>
       <c r="J6" t="n">
-        <v>-36416.26389866912</v>
+        <v>-36513.72302464141</v>
       </c>
       <c r="K6" t="n">
-        <v>83304.34534029017</v>
+        <v>83285.85160235599</v>
       </c>
       <c r="L6" t="n">
-        <v>114187.1677568089</v>
+        <v>114187.1677568088</v>
       </c>
       <c r="M6" t="n">
-        <v>-10270.94067616157</v>
+        <v>-10270.9406761615</v>
       </c>
       <c r="N6" t="n">
+        <v>124530.0745576756</v>
+      </c>
+      <c r="O6" t="n">
         <v>124530.0745576757</v>
       </c>
-      <c r="O6" t="n">
-        <v>124530.0745576756</v>
-      </c>
       <c r="P6" t="n">
-        <v>80367.46925482982</v>
+        <v>80367.46925482975</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.714909557531129e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,19 +26744,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26765,10 +26765,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.714909557531129e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108343</v>
+        <v>12.92863350108353</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855724</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,19 +26966,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.714909557531129e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>350.1291832800447</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>158.6990336467719</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>13.49974891371804</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>11.79420836743367</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>277.2230433421723</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>98.09822045918767</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27825,10 +27825,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>191.6261885493708</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>221.5337857543899</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>187.838943326898</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28026,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>11.85718952785652</v>
+        <v>104.6843862893376</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.171014363196359e-12</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32707,40 +32707,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32792,19 +32792,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32813,13 +32813,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,22 +35495,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K15" t="n">
-        <v>350.198519175048</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>526.9295015768301</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35978,13 +35978,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556551</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187473</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,22 +36124,22 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
         <v>59.82538970349766</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556551</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523302</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36522,19 +36522,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36686,10 +36686,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>506.0379672345562</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556554</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,10 +36765,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187475</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36923,10 +36923,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>560.035498861915</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412272</v>
+        <v>67.71102679412263</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043195</v>
+        <v>94.42895660043186</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37561,7 +37561,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37859,10 +37859,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>321.8721269178656</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>339.4611332181801</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520627</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
